--- a/INTLINE/data/112/112_series.xlsx
+++ b/INTLINE/data/112/112_series.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\INTLINE\data\112\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\112\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2DA576-73C9-45C4-BA16-A8C4E346290E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="10575" activeTab="2"/>
+    <workbookView xWindow="5520" yWindow="4065" windowWidth="23880" windowHeight="9870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7641" uniqueCount="2984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7641" uniqueCount="2987">
   <si>
     <t>Short Label</t>
   </si>
@@ -11428,12 +11429,6 @@
     <t>New Housing</t>
   </si>
   <si>
-    <t>Private Industrial</t>
-  </si>
-  <si>
-    <t>Private Commercial</t>
-  </si>
-  <si>
     <t>MV37</t>
   </si>
   <si>
@@ -11455,16 +11450,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>All New Housing</t>
-  </si>
-  <si>
-    <t>Infra-structure</t>
-  </si>
-  <si>
     <t>Other New Work</t>
-  </si>
-  <si>
-    <t>All Other Work</t>
   </si>
   <si>
     <t>All New Work</t>
@@ -11860,10 +11846,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Infra-structure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Table 1a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -13789,11 +13771,38 @@
     <t>WSA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>New housing public</t>
+  </si>
+  <si>
+    <t>New housing private</t>
+  </si>
+  <si>
+    <t>All  new housing</t>
+  </si>
+  <si>
+    <t>Other new work infrastructure</t>
+  </si>
+  <si>
+    <t>Other new work excluding infrastructure</t>
+  </si>
+  <si>
+    <t>Private industrial</t>
+  </si>
+  <si>
+    <t>Private commercial</t>
+  </si>
+  <si>
+    <t>All other work</t>
+  </si>
+  <si>
+    <t>All new work</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -14202,7 +14211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:K187"/>
   <sheetViews>
@@ -14290,7 +14299,7 @@
         <v>2089</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -15692,7 +15701,7 @@
         <v>572</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2491</v>
+        <v>2485</v>
       </c>
       <c r="C46" t="s">
         <v>422</v>
@@ -18508,7 +18517,7 @@
         <v>291</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>2488</v>
+        <v>2482</v>
       </c>
       <c r="C131" t="s">
         <v>289</v>
@@ -18543,7 +18552,7 @@
         <v>394</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>2489</v>
+        <v>2483</v>
       </c>
       <c r="C132" t="s">
         <v>109</v>
@@ -20339,13 +20348,13 @@
         <v>450</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>2495</v>
+        <v>2489</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>2497</v>
+        <v>2491</v>
       </c>
     </row>
   </sheetData>
@@ -20355,13 +20364,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J104" sqref="J104"/>
+      <selection pane="topRight" activeCell="K215" sqref="K215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20416,10 +20425,10 @@
         <v>2086</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -21709,13 +21718,13 @@
         <v>16</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>2464</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="41" spans="1:12" customFormat="1">
@@ -21747,13 +21756,13 @@
         <v>16</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>2465</v>
+        <v>2459</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>2464</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="42" spans="1:12" customFormat="1">
@@ -21761,7 +21770,7 @@
         <v>1231</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
@@ -21785,13 +21794,13 @@
         <v>16</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>2464</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="43" spans="1:12" customFormat="1">
@@ -21820,7 +21829,7 @@
         <v>16</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>2347</v>
@@ -21927,7 +21936,7 @@
         <v>1409</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2494</v>
+        <v>2488</v>
       </c>
       <c r="C47" t="s">
         <v>418</v>
@@ -21962,7 +21971,7 @@
         <v>1178</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2492</v>
+        <v>2486</v>
       </c>
       <c r="C48" t="s">
         <v>422</v>
@@ -21997,7 +22006,7 @@
         <v>1220</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2493</v>
+        <v>2487</v>
       </c>
       <c r="C49" t="s">
         <v>418</v>
@@ -23725,7 +23734,7 @@
     </row>
     <row r="103" spans="1:12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
       <c r="B103" t="s">
         <v>929</v>
@@ -23737,7 +23746,7 @@
         <v>930</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="F103" t="s">
         <v>28</v>
@@ -23752,10 +23761,10 @@
         <v>16</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>2975</v>
+        <v>2969</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="L103" s="10"/>
     </row>
@@ -25169,7 +25178,7 @@
         <v>1372</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>2466</v>
+        <v>2460</v>
       </c>
       <c r="C145" t="s">
         <v>289</v>
@@ -25204,7 +25213,7 @@
         <v>799</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>2490</v>
+        <v>2484</v>
       </c>
       <c r="C146" t="s">
         <v>109</v>
@@ -26403,7 +26412,7 @@
         <v>970</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>2467</v>
+        <v>2461</v>
       </c>
       <c r="C183" t="s">
         <v>51</v>
@@ -26563,13 +26572,13 @@
         <v>16</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>1757</v>
+        <v>2978</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
       <c r="M187" s="10" t="s">
         <v>2362</v>
@@ -26604,13 +26613,13 @@
         <v>16</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>455</v>
+        <v>2979</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M188" s="10" t="s">
         <v>2362</v>
@@ -26645,13 +26654,13 @@
         <v>16</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>2371</v>
+        <v>2980</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M189" s="10" t="s">
         <v>2362</v>
@@ -26686,16 +26695,16 @@
         <v>16</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>2463</v>
+        <v>2981</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M190" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -26727,16 +26736,16 @@
         <v>16</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>1757</v>
+        <v>2982</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M191" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -26768,16 +26777,16 @@
         <v>16</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>2363</v>
+        <v>2983</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M192" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -26809,16 +26818,16 @@
         <v>16</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>2364</v>
+        <v>2984</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M193" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -26850,16 +26859,16 @@
         <v>16</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>2374</v>
+        <v>2985</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M194" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -26891,16 +26900,16 @@
         <v>16</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>2375</v>
+        <v>2986</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -26929,13 +26938,13 @@
         <v>16</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>1757</v>
+        <v>2978</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M196" s="10" t="s">
         <v>2362</v>
@@ -26967,13 +26976,13 @@
         <v>16</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>455</v>
+        <v>2979</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M197" s="10" t="s">
         <v>2362</v>
@@ -27005,13 +27014,13 @@
         <v>16</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>2371</v>
+        <v>2980</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M198" s="10" t="s">
         <v>2362</v>
@@ -27043,16 +27052,16 @@
         <v>16</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>2372</v>
+        <v>2981</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M199" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -27081,16 +27090,16 @@
         <v>16</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>1757</v>
+        <v>2982</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M200" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -27119,16 +27128,16 @@
         <v>16</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>2363</v>
+        <v>2983</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M201" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -27157,16 +27166,16 @@
         <v>16</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>2364</v>
+        <v>2984</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M202" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -27195,16 +27204,16 @@
         <v>16</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>2374</v>
+        <v>2985</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M203" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -27233,16 +27242,16 @@
         <v>16</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>2375</v>
+        <v>2986</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -27271,13 +27280,13 @@
         <v>16</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>1757</v>
+        <v>2978</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="M205" s="10" t="s">
         <v>2362</v>
@@ -27309,13 +27318,13 @@
         <v>16</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>455</v>
+        <v>2979</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="M206" s="10" t="s">
         <v>2362</v>
@@ -27347,13 +27356,13 @@
         <v>16</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>2371</v>
+        <v>2980</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="M207" s="10" t="s">
         <v>2362</v>
@@ -27385,16 +27394,16 @@
         <v>16</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>2372</v>
+        <v>2981</v>
       </c>
       <c r="L208" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M208" s="10" t="s">
         <v>2369</v>
-      </c>
-      <c r="M208" s="10" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -27423,16 +27432,16 @@
         <v>16</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>1757</v>
+        <v>2982</v>
       </c>
       <c r="L209" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M209" s="10" t="s">
         <v>2369</v>
-      </c>
-      <c r="M209" s="10" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -27461,16 +27470,16 @@
         <v>16</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>2363</v>
+        <v>2983</v>
       </c>
       <c r="L210" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M210" s="10" t="s">
         <v>2369</v>
-      </c>
-      <c r="M210" s="10" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -27499,16 +27508,16 @@
         <v>16</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>2364</v>
+        <v>2984</v>
       </c>
       <c r="L211" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M211" s="10" t="s">
         <v>2369</v>
-      </c>
-      <c r="M211" s="10" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -27537,16 +27546,16 @@
         <v>16</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>2374</v>
+        <v>2985</v>
       </c>
       <c r="L212" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M212" s="10" t="s">
         <v>2369</v>
-      </c>
-      <c r="M212" s="10" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -27575,16 +27584,16 @@
         <v>16</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>2375</v>
+        <v>2986</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -27613,13 +27622,13 @@
         <v>16</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>1757</v>
+        <v>2978</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M214" s="10" t="s">
         <v>2362</v>
@@ -27651,13 +27660,13 @@
         <v>16</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>455</v>
+        <v>2979</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M215" s="10" t="s">
         <v>2362</v>
@@ -27689,13 +27698,13 @@
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>2371</v>
+        <v>2980</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M216" s="10" t="s">
         <v>2362</v>
@@ -27727,16 +27736,16 @@
         <v>16</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>2372</v>
+        <v>2981</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M217" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -27765,16 +27774,16 @@
         <v>16</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>1757</v>
+        <v>2982</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M218" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -27803,16 +27812,16 @@
         <v>16</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>2363</v>
+        <v>2983</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M219" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -27841,16 +27850,16 @@
         <v>16</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>2364</v>
+        <v>2984</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M220" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -27879,16 +27888,16 @@
         <v>16</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>2374</v>
+        <v>2985</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M221" s="10" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -27917,16 +27926,16 @@
         <v>16</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>2375</v>
+        <v>2986</v>
       </c>
       <c r="L222" s="3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="M222" s="4" t="s">
         <v>2370</v>
-      </c>
-      <c r="M222" s="4" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -27934,16 +27943,16 @@
         <v>1218</v>
       </c>
       <c r="B223" t="s">
-        <v>2631</v>
+        <v>2625</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>2923</v>
+        <v>2917</v>
       </c>
       <c r="E223" t="s">
         <v>1217</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>2849</v>
+        <v>2843</v>
       </c>
       <c r="G223" t="s">
         <v>29</v>
@@ -27952,13 +27961,13 @@
         <v>936</v>
       </c>
       <c r="I223" s="8" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K223" s="10" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="M223"/>
     </row>
@@ -27967,16 +27976,16 @@
         <v>935</v>
       </c>
       <c r="B224" t="s">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>2923</v>
+        <v>2917</v>
       </c>
       <c r="E224" t="s">
         <v>934</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>2850</v>
+        <v>2844</v>
       </c>
       <c r="G224" t="s">
         <v>646</v>
@@ -27988,10 +27997,10 @@
         <v>783</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K224" s="10" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -28067,16 +28076,16 @@
         <v>1136</v>
       </c>
       <c r="B227" t="s">
-        <v>2633</v>
+        <v>2627</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>2924</v>
+        <v>2918</v>
       </c>
       <c r="E227" t="s">
         <v>1135</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>2904</v>
+        <v>2898</v>
       </c>
       <c r="G227" t="s">
         <v>29</v>
@@ -28088,10 +28097,10 @@
         <v>783</v>
       </c>
       <c r="J227" s="9" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K227" s="9" t="s">
-        <v>2713</v>
+        <v>2707</v>
       </c>
       <c r="M227"/>
     </row>
@@ -28100,16 +28109,16 @@
         <v>988</v>
       </c>
       <c r="B228" t="s">
-        <v>2634</v>
+        <v>2628</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>2924</v>
+        <v>2918</v>
       </c>
       <c r="E228" t="s">
         <v>987</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>2905</v>
+        <v>2899</v>
       </c>
       <c r="G228" t="s">
         <v>646</v>
@@ -28121,10 +28130,10 @@
         <v>783</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K228" s="9" t="s">
-        <v>2714</v>
+        <v>2708</v>
       </c>
       <c r="M228"/>
     </row>
@@ -28133,16 +28142,16 @@
         <v>1413</v>
       </c>
       <c r="B229" t="s">
-        <v>2635</v>
+        <v>2629</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>2925</v>
+        <v>2919</v>
       </c>
       <c r="E229" t="s">
         <v>1412</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>2906</v>
+        <v>2900</v>
       </c>
       <c r="G229" t="s">
         <v>29</v>
@@ -28154,10 +28163,10 @@
         <v>783</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K229" s="10" t="s">
-        <v>2687</v>
+        <v>2681</v>
       </c>
       <c r="M229"/>
     </row>
@@ -28166,16 +28175,16 @@
         <v>1505</v>
       </c>
       <c r="B230" t="s">
-        <v>2636</v>
+        <v>2630</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>2925</v>
+        <v>2919</v>
       </c>
       <c r="E230" t="s">
         <v>1504</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>2907</v>
+        <v>2901</v>
       </c>
       <c r="G230" t="s">
         <v>646</v>
@@ -28187,10 +28196,10 @@
         <v>783</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K230" s="10" t="s">
-        <v>2688</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -28198,16 +28207,16 @@
         <v>947</v>
       </c>
       <c r="B231" t="s">
-        <v>2637</v>
+        <v>2631</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>2926</v>
+        <v>2920</v>
       </c>
       <c r="E231" t="s">
         <v>946</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G231" t="s">
         <v>29</v>
@@ -28219,10 +28228,10 @@
         <v>783</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K231" s="10" t="s">
-        <v>2689</v>
+        <v>2683</v>
       </c>
       <c r="M231"/>
     </row>
@@ -28231,16 +28240,16 @@
         <v>1289</v>
       </c>
       <c r="B232" t="s">
-        <v>2638</v>
+        <v>2632</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>2926</v>
+        <v>2920</v>
       </c>
       <c r="E232" t="s">
         <v>1288</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G232" t="s">
         <v>646</v>
@@ -28252,10 +28261,10 @@
         <v>783</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K232" s="10" t="s">
-        <v>2690</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -28263,16 +28272,16 @@
         <v>1275</v>
       </c>
       <c r="B233" t="s">
-        <v>2639</v>
+        <v>2633</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>2720</v>
+        <v>2714</v>
       </c>
       <c r="E233" t="s">
         <v>1274</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G233" t="s">
         <v>29</v>
@@ -28284,10 +28293,10 @@
         <v>783</v>
       </c>
       <c r="J233" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K233" s="10" t="s">
-        <v>2771</v>
+        <v>2765</v>
       </c>
       <c r="M233"/>
     </row>
@@ -28296,16 +28305,16 @@
         <v>898</v>
       </c>
       <c r="B234" t="s">
-        <v>2640</v>
+        <v>2634</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>2927</v>
+        <v>2921</v>
       </c>
       <c r="E234" t="s">
         <v>897</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G234" t="s">
         <v>646</v>
@@ -28317,10 +28326,10 @@
         <v>783</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K234" s="10" t="s">
-        <v>2772</v>
+        <v>2766</v>
       </c>
       <c r="M234"/>
     </row>
@@ -28329,16 +28338,16 @@
         <v>1291</v>
       </c>
       <c r="B235" t="s">
-        <v>2641</v>
+        <v>2635</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>2928</v>
+        <v>2922</v>
       </c>
       <c r="E235" t="s">
         <v>1290</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G235" t="s">
         <v>29</v>
@@ -28350,10 +28359,10 @@
         <v>783</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K235" s="10" t="s">
-        <v>2773</v>
+        <v>2767</v>
       </c>
       <c r="M235"/>
     </row>
@@ -28362,16 +28371,16 @@
         <v>1125</v>
       </c>
       <c r="B236" t="s">
-        <v>2642</v>
+        <v>2636</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>2928</v>
+        <v>2922</v>
       </c>
       <c r="E236" t="s">
         <v>1124</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G236" t="s">
         <v>646</v>
@@ -28383,10 +28392,10 @@
         <v>783</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K236" s="10" t="s">
-        <v>2937</v>
+        <v>2931</v>
       </c>
       <c r="M236"/>
     </row>
@@ -28395,16 +28404,16 @@
         <v>1070</v>
       </c>
       <c r="B237" t="s">
-        <v>2643</v>
+        <v>2637</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>2929</v>
+        <v>2923</v>
       </c>
       <c r="E237" t="s">
         <v>1069</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G237" t="s">
         <v>29</v>
@@ -28416,10 +28425,10 @@
         <v>783</v>
       </c>
       <c r="J237" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K237" s="10" t="s">
-        <v>2774</v>
+        <v>2768</v>
       </c>
       <c r="M237"/>
     </row>
@@ -28428,16 +28437,16 @@
         <v>861</v>
       </c>
       <c r="B238" t="s">
-        <v>2644</v>
+        <v>2638</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>2929</v>
+        <v>2923</v>
       </c>
       <c r="E238" t="s">
         <v>860</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G238" t="s">
         <v>646</v>
@@ -28449,10 +28458,10 @@
         <v>783</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K238" s="10" t="s">
-        <v>2775</v>
+        <v>2769</v>
       </c>
       <c r="M238"/>
     </row>
@@ -28461,16 +28470,16 @@
         <v>905</v>
       </c>
       <c r="B239" t="s">
-        <v>2645</v>
+        <v>2639</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>2930</v>
+        <v>2924</v>
       </c>
       <c r="E239" t="s">
         <v>904</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G239" t="s">
         <v>29</v>
@@ -28482,10 +28491,10 @@
         <v>783</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K239" s="10" t="s">
-        <v>2691</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -28493,16 +28502,16 @@
         <v>781</v>
       </c>
       <c r="B240" t="s">
-        <v>2646</v>
+        <v>2640</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>2930</v>
+        <v>2924</v>
       </c>
       <c r="E240" t="s">
         <v>780</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G240" t="s">
         <v>646</v>
@@ -28514,10 +28523,10 @@
         <v>783</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K240" s="10" t="s">
-        <v>2692</v>
+        <v>2686</v>
       </c>
       <c r="M240" s="4"/>
     </row>
@@ -28526,16 +28535,16 @@
         <v>1123</v>
       </c>
       <c r="B241" t="s">
-        <v>2647</v>
+        <v>2641</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>2931</v>
+        <v>2925</v>
       </c>
       <c r="E241" t="s">
         <v>1122</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G241" t="s">
         <v>29</v>
@@ -28547,10 +28556,10 @@
         <v>783</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K241" s="10" t="s">
-        <v>2693</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -28558,16 +28567,16 @@
         <v>1213</v>
       </c>
       <c r="B242" t="s">
-        <v>2648</v>
+        <v>2642</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>2931</v>
+        <v>2925</v>
       </c>
       <c r="E242" t="s">
         <v>1212</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G242" t="s">
         <v>646</v>
@@ -28579,10 +28588,10 @@
         <v>783</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K242" s="10" t="s">
-        <v>2694</v>
+        <v>2688</v>
       </c>
       <c r="M242" s="4"/>
     </row>
@@ -28591,16 +28600,16 @@
         <v>1347</v>
       </c>
       <c r="B243" t="s">
-        <v>2649</v>
+        <v>2643</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>2932</v>
+        <v>2926</v>
       </c>
       <c r="E243" t="s">
         <v>1346</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G243" t="s">
         <v>29</v>
@@ -28612,10 +28621,10 @@
         <v>783</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K243" s="10" t="s">
-        <v>2695</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -28623,16 +28632,16 @@
         <v>829</v>
       </c>
       <c r="B244" t="s">
-        <v>2650</v>
+        <v>2644</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>2932</v>
+        <v>2926</v>
       </c>
       <c r="E244" t="s">
         <v>828</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G244" t="s">
         <v>646</v>
@@ -28644,10 +28653,10 @@
         <v>783</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K244" s="10" t="s">
-        <v>2696</v>
+        <v>2690</v>
       </c>
       <c r="M244" s="4"/>
     </row>
@@ -28656,16 +28665,16 @@
         <v>850</v>
       </c>
       <c r="B245" t="s">
-        <v>2651</v>
+        <v>2645</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>2933</v>
+        <v>2927</v>
       </c>
       <c r="E245" t="s">
         <v>849</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G245" t="s">
         <v>29</v>
@@ -28677,10 +28686,10 @@
         <v>783</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K245" s="10" t="s">
-        <v>2697</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -28688,16 +28697,16 @@
         <v>907</v>
       </c>
       <c r="B246" t="s">
-        <v>2652</v>
+        <v>2646</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>2933</v>
+        <v>2927</v>
       </c>
       <c r="E246" t="s">
         <v>906</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G246" t="s">
         <v>646</v>
@@ -28709,10 +28718,10 @@
         <v>783</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K246" s="10" t="s">
-        <v>2698</v>
+        <v>2692</v>
       </c>
       <c r="M246" s="4"/>
     </row>
@@ -28721,16 +28730,16 @@
         <v>815</v>
       </c>
       <c r="B247" t="s">
-        <v>2653</v>
+        <v>2647</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E247" t="s">
         <v>814</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>2908</v>
+        <v>2902</v>
       </c>
       <c r="G247" t="s">
         <v>29</v>
@@ -28742,10 +28751,10 @@
         <v>783</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K247" s="10" t="s">
-        <v>2699</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -28753,16 +28762,16 @@
         <v>1405</v>
       </c>
       <c r="B248" t="s">
-        <v>2654</v>
+        <v>2648</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E248" t="s">
         <v>1404</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>2909</v>
+        <v>2903</v>
       </c>
       <c r="G248" t="s">
         <v>646</v>
@@ -28774,10 +28783,10 @@
         <v>783</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K248" s="10" t="s">
-        <v>2700</v>
+        <v>2694</v>
       </c>
       <c r="M248" s="4"/>
     </row>
@@ -28786,16 +28795,16 @@
         <v>1430</v>
       </c>
       <c r="B249" t="s">
-        <v>2655</v>
+        <v>2649</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E249" t="s">
         <v>1429</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>2910</v>
+        <v>2904</v>
       </c>
       <c r="G249" t="s">
         <v>29</v>
@@ -28807,10 +28816,10 @@
         <v>783</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K249" s="10" t="s">
-        <v>2701</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -28818,16 +28827,16 @@
         <v>1367</v>
       </c>
       <c r="B250" t="s">
-        <v>2656</v>
+        <v>2650</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E250" t="s">
         <v>1366</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>2911</v>
+        <v>2905</v>
       </c>
       <c r="G250" t="s">
         <v>646</v>
@@ -28839,10 +28848,10 @@
         <v>783</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K250" s="10" t="s">
-        <v>2702</v>
+        <v>2696</v>
       </c>
       <c r="M250" s="4"/>
     </row>
@@ -28851,16 +28860,16 @@
         <v>801</v>
       </c>
       <c r="B251" t="s">
-        <v>2657</v>
+        <v>2651</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E251" t="s">
         <v>800</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>2912</v>
+        <v>2906</v>
       </c>
       <c r="G251" t="s">
         <v>29</v>
@@ -28872,10 +28881,10 @@
         <v>783</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K251" s="10" t="s">
-        <v>2703</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -28883,16 +28892,16 @@
         <v>837</v>
       </c>
       <c r="B252" t="s">
-        <v>2658</v>
+        <v>2652</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E252" t="s">
         <v>836</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>2913</v>
+        <v>2907</v>
       </c>
       <c r="G252" t="s">
         <v>646</v>
@@ -28904,10 +28913,10 @@
         <v>783</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K252" s="10" t="s">
-        <v>2704</v>
+        <v>2698</v>
       </c>
       <c r="M252" s="4"/>
     </row>
@@ -28916,16 +28925,16 @@
         <v>1423</v>
       </c>
       <c r="B253" t="s">
-        <v>2659</v>
+        <v>2653</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E253" t="s">
         <v>1422</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>2914</v>
+        <v>2908</v>
       </c>
       <c r="G253" t="s">
         <v>29</v>
@@ -28937,10 +28946,10 @@
         <v>783</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K253" s="10" t="s">
-        <v>2705</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -28948,16 +28957,16 @@
         <v>1500</v>
       </c>
       <c r="B254" t="s">
-        <v>2660</v>
+        <v>2654</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E254" t="s">
         <v>1499</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>2915</v>
+        <v>2909</v>
       </c>
       <c r="G254" t="s">
         <v>646</v>
@@ -28969,10 +28978,10 @@
         <v>783</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K254" s="10" t="s">
-        <v>2706</v>
+        <v>2700</v>
       </c>
       <c r="M254" s="4"/>
     </row>
@@ -28981,16 +28990,16 @@
         <v>1383</v>
       </c>
       <c r="B255" t="s">
-        <v>2661</v>
+        <v>2655</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E255" t="s">
         <v>1382</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>2916</v>
+        <v>2910</v>
       </c>
       <c r="G255" t="s">
         <v>29</v>
@@ -29002,27 +29011,27 @@
         <v>783</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K255" s="10" t="s">
-        <v>2707</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="8" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
       <c r="B256" t="s">
-        <v>2662</v>
+        <v>2656</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E256" t="s">
         <v>1489</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>2917</v>
+        <v>2911</v>
       </c>
       <c r="G256" t="s">
         <v>646</v>
@@ -29034,10 +29043,10 @@
         <v>783</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K256" s="10" t="s">
-        <v>2708</v>
+        <v>2702</v>
       </c>
       <c r="M256" s="4"/>
     </row>
@@ -29046,16 +29055,16 @@
         <v>1444</v>
       </c>
       <c r="B257" t="s">
-        <v>2663</v>
+        <v>2657</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E257" t="s">
         <v>1443</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>2918</v>
+        <v>2912</v>
       </c>
       <c r="G257" t="s">
         <v>29</v>
@@ -29067,10 +29076,10 @@
         <v>783</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K257" s="10" t="s">
-        <v>2709</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -29078,16 +29087,16 @@
         <v>1421</v>
       </c>
       <c r="B258" t="s">
-        <v>2664</v>
+        <v>2658</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="E258" t="s">
         <v>1420</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>2919</v>
+        <v>2913</v>
       </c>
       <c r="G258" t="s">
         <v>646</v>
@@ -29099,10 +29108,10 @@
         <v>783</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K258" s="10" t="s">
-        <v>2710</v>
+        <v>2704</v>
       </c>
       <c r="M258" s="5"/>
     </row>
@@ -29111,16 +29120,16 @@
         <v>1411</v>
       </c>
       <c r="B259" t="s">
-        <v>2665</v>
+        <v>2659</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>2935</v>
+        <v>2929</v>
       </c>
       <c r="E259" t="s">
         <v>1410</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G259" t="s">
         <v>29</v>
@@ -29132,10 +29141,10 @@
         <v>783</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K259" s="10" t="s">
-        <v>2711</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -29143,16 +29152,16 @@
         <v>1349</v>
       </c>
       <c r="B260" t="s">
-        <v>2666</v>
+        <v>2660</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>2935</v>
+        <v>2929</v>
       </c>
       <c r="E260" t="s">
         <v>1348</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G260" t="s">
         <v>646</v>
@@ -29164,10 +29173,10 @@
         <v>783</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K260" s="10" t="s">
-        <v>2712</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -29175,16 +29184,16 @@
         <v>903</v>
       </c>
       <c r="B261" t="s">
-        <v>2667</v>
+        <v>2661</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>2925</v>
+        <v>2919</v>
       </c>
       <c r="E261" t="s">
         <v>902</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>2776</v>
+        <v>2770</v>
       </c>
       <c r="G261" t="s">
         <v>29</v>
@@ -29196,10 +29205,10 @@
         <v>783</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K261" s="4" t="s">
-        <v>2801</v>
+        <v>2795</v>
       </c>
       <c r="M261"/>
     </row>
@@ -29208,16 +29217,16 @@
         <v>1039</v>
       </c>
       <c r="B262" t="s">
-        <v>2668</v>
+        <v>2662</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>2925</v>
+        <v>2919</v>
       </c>
       <c r="E262" t="s">
         <v>1038</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>2920</v>
+        <v>2914</v>
       </c>
       <c r="G262" t="s">
         <v>646</v>
@@ -29229,10 +29238,10 @@
         <v>783</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K262" s="4" t="s">
-        <v>2802</v>
+        <v>2796</v>
       </c>
       <c r="M262"/>
     </row>
@@ -29241,16 +29250,16 @@
         <v>1519</v>
       </c>
       <c r="B263" t="s">
-        <v>2669</v>
+        <v>2663</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E263" t="s">
         <v>1518</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="G263" t="s">
         <v>29</v>
@@ -29262,10 +29271,10 @@
         <v>783</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K263" s="4" t="s">
-        <v>2791</v>
+        <v>2785</v>
       </c>
       <c r="M263"/>
     </row>
@@ -29274,16 +29283,16 @@
         <v>1093</v>
       </c>
       <c r="B264" t="s">
-        <v>2670</v>
+        <v>2664</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E264" t="s">
         <v>1092</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>2783</v>
+        <v>2777</v>
       </c>
       <c r="G264" t="s">
         <v>646</v>
@@ -29295,10 +29304,10 @@
         <v>783</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K264" s="4" t="s">
-        <v>2792</v>
+        <v>2786</v>
       </c>
       <c r="M264"/>
     </row>
@@ -29307,16 +29316,16 @@
         <v>848</v>
       </c>
       <c r="B265" t="s">
-        <v>2671</v>
+        <v>2665</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E265" t="s">
         <v>847</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>2779</v>
+        <v>2773</v>
       </c>
       <c r="G265" t="s">
         <v>29</v>
@@ -29328,10 +29337,10 @@
         <v>783</v>
       </c>
       <c r="J265" s="3" t="s">
+        <v>2781</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>2787</v>
-      </c>
-      <c r="K265" s="4" t="s">
-        <v>2793</v>
       </c>
       <c r="M265"/>
     </row>
@@ -29340,16 +29349,16 @@
         <v>972</v>
       </c>
       <c r="B266" t="s">
-        <v>2672</v>
+        <v>2666</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E266" t="s">
         <v>971</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>2784</v>
+        <v>2778</v>
       </c>
       <c r="G266" t="s">
         <v>646</v>
@@ -29361,10 +29370,10 @@
         <v>783</v>
       </c>
       <c r="J266" s="3" t="s">
+        <v>2782</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>2788</v>
-      </c>
-      <c r="K266" s="4" t="s">
-        <v>2794</v>
       </c>
       <c r="M266"/>
     </row>
@@ -29373,16 +29382,16 @@
         <v>1158</v>
       </c>
       <c r="B267" t="s">
-        <v>2673</v>
+        <v>2667</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E267" t="s">
         <v>1157</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>2780</v>
+        <v>2774</v>
       </c>
       <c r="G267" t="s">
         <v>29</v>
@@ -29394,10 +29403,10 @@
         <v>783</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>2795</v>
+        <v>2789</v>
       </c>
       <c r="M267"/>
     </row>
@@ -29406,16 +29415,16 @@
         <v>1072</v>
       </c>
       <c r="B268" t="s">
-        <v>2674</v>
+        <v>2668</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E268" t="s">
         <v>1071</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>2785</v>
+        <v>2779</v>
       </c>
       <c r="G268" t="s">
         <v>646</v>
@@ -29427,10 +29436,10 @@
         <v>783</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K268" s="4" t="s">
-        <v>2796</v>
+        <v>2790</v>
       </c>
       <c r="M268"/>
     </row>
@@ -29439,16 +29448,16 @@
         <v>1062</v>
       </c>
       <c r="B269" t="s">
-        <v>2675</v>
+        <v>2669</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E269" t="s">
         <v>1061</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>2778</v>
+        <v>2772</v>
       </c>
       <c r="G269" t="s">
         <v>29</v>
@@ -29460,10 +29469,10 @@
         <v>783</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K269" s="4" t="s">
-        <v>2797</v>
+        <v>2791</v>
       </c>
       <c r="M269"/>
     </row>
@@ -29472,16 +29481,16 @@
         <v>797</v>
       </c>
       <c r="B270" t="s">
-        <v>2676</v>
+        <v>2670</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E270" t="s">
         <v>796</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="G270" t="s">
         <v>646</v>
@@ -29493,10 +29502,10 @@
         <v>783</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K270" s="4" t="s">
-        <v>2798</v>
+        <v>2792</v>
       </c>
       <c r="M270"/>
     </row>
@@ -29505,16 +29514,16 @@
         <v>1425</v>
       </c>
       <c r="B271" t="s">
-        <v>2677</v>
+        <v>2671</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E271" t="s">
         <v>1424</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>2777</v>
+        <v>2771</v>
       </c>
       <c r="G271" t="s">
         <v>29</v>
@@ -29526,10 +29535,10 @@
         <v>783</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K271" s="4" t="s">
-        <v>2790</v>
+        <v>2784</v>
       </c>
       <c r="M271"/>
     </row>
@@ -29538,16 +29547,16 @@
         <v>1166</v>
       </c>
       <c r="B272" t="s">
-        <v>2678</v>
+        <v>2672</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E272" t="s">
         <v>1165</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>2782</v>
+        <v>2776</v>
       </c>
       <c r="G272" t="s">
         <v>646</v>
@@ -29559,10 +29568,10 @@
         <v>783</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K272" s="4" t="s">
-        <v>2789</v>
+        <v>2783</v>
       </c>
       <c r="M272"/>
     </row>
@@ -29571,16 +29580,16 @@
         <v>1312</v>
       </c>
       <c r="B273" t="s">
-        <v>2679</v>
+        <v>2673</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E273" t="s">
         <v>1311</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>2781</v>
+        <v>2775</v>
       </c>
       <c r="G273" t="s">
         <v>29</v>
@@ -29592,10 +29601,10 @@
         <v>783</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K273" s="4" t="s">
-        <v>2799</v>
+        <v>2793</v>
       </c>
       <c r="L273" s="10"/>
     </row>
@@ -29604,16 +29613,16 @@
         <v>986</v>
       </c>
       <c r="B274" t="s">
-        <v>2680</v>
+        <v>2674</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="E274" t="s">
         <v>985</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>2786</v>
+        <v>2780</v>
       </c>
       <c r="G274" t="s">
         <v>646</v>
@@ -29625,10 +29634,10 @@
         <v>783</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K274" s="4" t="s">
-        <v>2800</v>
+        <v>2794</v>
       </c>
       <c r="L274" s="10"/>
     </row>
@@ -30013,7 +30022,7 @@
         <v>2089</v>
       </c>
       <c r="K286" s="4" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="L286" s="10"/>
     </row>
@@ -30968,7 +30977,7 @@
         <v>1068</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="C315" t="s">
         <v>447</v>
@@ -30986,13 +30995,13 @@
         <v>450</v>
       </c>
       <c r="I315" s="8" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="J315" s="4" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="K315" s="4" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
       <c r="M315"/>
     </row>
@@ -31044,7 +31053,7 @@
       <c r="J327" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:I315">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I315">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -31053,12 +31062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
@@ -31141,7 +31150,7 @@
         <v>2296</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -31824,7 +31833,7 @@
         <v>1736</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
       <c r="C24" t="s">
         <v>83</v>
@@ -32130,7 +32139,7 @@
         <v>1577</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="C33" t="s">
         <v>109</v>
@@ -32154,10 +32163,10 @@
         <v>16</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -32165,7 +32174,7 @@
         <v>1957</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
       <c r="C34" t="s">
         <v>1955</v>
@@ -32189,10 +32198,10 @@
         <v>16</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -32200,7 +32209,7 @@
         <v>1809</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>2477</v>
+        <v>2471</v>
       </c>
       <c r="C35" t="s">
         <v>1807</v>
@@ -32224,10 +32233,10 @@
         <v>16</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -32235,7 +32244,7 @@
         <v>2073</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>2478</v>
+        <v>2472</v>
       </c>
       <c r="C36" t="s">
         <v>2071</v>
@@ -32259,10 +32268,10 @@
         <v>16</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -32270,7 +32279,7 @@
         <v>1777</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>2479</v>
+        <v>2473</v>
       </c>
       <c r="C37" t="s">
         <v>1775</v>
@@ -32294,10 +32303,10 @@
         <v>16</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -32305,7 +32314,7 @@
         <v>1655</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="C38" t="s">
         <v>1653</v>
@@ -32329,10 +32338,10 @@
         <v>16</v>
       </c>
       <c r="J38" s="10" t="s">
+        <v>2376</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>2381</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>2386</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -32340,7 +32349,7 @@
         <v>1648</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="C39" t="s">
         <v>1646</v>
@@ -32364,10 +32373,10 @@
         <v>16</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -32375,7 +32384,7 @@
         <v>2046</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>2482</v>
+        <v>2476</v>
       </c>
       <c r="C40" t="s">
         <v>2044</v>
@@ -32399,10 +32408,10 @@
         <v>16</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -32410,7 +32419,7 @@
         <v>2036</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>2483</v>
+        <v>2477</v>
       </c>
       <c r="C41" t="s">
         <v>2034</v>
@@ -32434,10 +32443,10 @@
         <v>16</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -32445,7 +32454,7 @@
         <v>1610</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2484</v>
+        <v>2478</v>
       </c>
       <c r="C42" t="s">
         <v>1608</v>
@@ -32469,10 +32478,10 @@
         <v>16</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -32480,7 +32489,7 @@
         <v>1832</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2485</v>
+        <v>2479</v>
       </c>
       <c r="C43" t="s">
         <v>437</v>
@@ -32504,10 +32513,10 @@
         <v>16</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -32515,7 +32524,7 @@
         <v>1687</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2486</v>
+        <v>2480</v>
       </c>
       <c r="C44" t="s">
         <v>1685</v>
@@ -32539,10 +32548,10 @@
         <v>16</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -32550,7 +32559,7 @@
         <v>1773</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2487</v>
+        <v>2481</v>
       </c>
       <c r="C45" t="s">
         <v>1771</v>
@@ -32574,10 +32583,10 @@
         <v>16</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -32585,7 +32594,7 @@
         <v>1840</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2404</v>
+        <v>2399</v>
       </c>
       <c r="C46" t="s">
         <v>1838</v>
@@ -32609,10 +32618,10 @@
         <v>16</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>2407</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -32644,10 +32653,10 @@
         <v>16</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -32679,10 +32688,10 @@
         <v>16</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -32714,10 +32723,10 @@
         <v>16</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -32749,10 +32758,10 @@
         <v>16</v>
       </c>
       <c r="J50" s="10" t="s">
+        <v>2401</v>
+      </c>
+      <c r="K50" s="10" t="s">
         <v>2406</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>2411</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -32784,10 +32793,10 @@
         <v>16</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>2412</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -32795,10 +32804,10 @@
         <v>1976</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="C52" t="s">
-        <v>2945</v>
+        <v>2939</v>
       </c>
       <c r="D52" t="s">
         <v>110</v>
@@ -32819,10 +32828,10 @@
         <v>1620</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>2944</v>
+        <v>2938</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>2977</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -32833,7 +32842,7 @@
         <v>1764</v>
       </c>
       <c r="C53" t="s">
-        <v>2945</v>
+        <v>2939</v>
       </c>
       <c r="D53" t="s">
         <v>110</v>
@@ -32854,10 +32863,10 @@
         <v>1620</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>2944</v>
+        <v>2938</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>2978</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -32996,10 +33005,10 @@
         <v>1619</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>2948</v>
+        <v>2942</v>
       </c>
       <c r="C58" t="s">
-        <v>2943</v>
+        <v>2937</v>
       </c>
       <c r="D58" t="s">
         <v>110</v>
@@ -33020,10 +33029,10 @@
         <v>1620</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>2942</v>
+        <v>2936</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -33098,7 +33107,7 @@
         <v>1781</v>
       </c>
       <c r="C61" t="s">
-        <v>2947</v>
+        <v>2941</v>
       </c>
       <c r="D61" t="s">
         <v>110</v>
@@ -33119,10 +33128,10 @@
         <v>1620</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>2946</v>
+        <v>2940</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>2980</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -33130,10 +33139,10 @@
         <v>1865</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>2938</v>
+        <v>2932</v>
       </c>
       <c r="C62" t="s">
-        <v>2947</v>
+        <v>2941</v>
       </c>
       <c r="D62" t="s">
         <v>110</v>
@@ -33154,10 +33163,10 @@
         <v>1620</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>2946</v>
+        <v>2940</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>2981</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -33189,10 +33198,10 @@
         <v>16</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -33224,10 +33233,10 @@
         <v>16</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -33259,10 +33268,10 @@
         <v>16</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -33294,10 +33303,10 @@
         <v>16</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -33329,10 +33338,10 @@
         <v>16</v>
       </c>
       <c r="J67" s="10" t="s">
+        <v>2390</v>
+      </c>
+      <c r="K67" s="10" t="s">
         <v>2395</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -33364,10 +33373,10 @@
         <v>16</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>2401</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -33399,10 +33408,10 @@
         <v>16</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -33434,10 +33443,10 @@
         <v>16</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>2403</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -33445,10 +33454,10 @@
         <v>2011</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>2939</v>
+        <v>2933</v>
       </c>
       <c r="C71" t="s">
-        <v>2940</v>
+        <v>2934</v>
       </c>
       <c r="D71" t="s">
         <v>110</v>
@@ -33469,10 +33478,10 @@
         <v>1620</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>2941</v>
+        <v>2935</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>2982</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -33480,7 +33489,7 @@
         <v>1753</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2961</v>
+        <v>2955</v>
       </c>
       <c r="C72" t="s">
         <v>109</v>
@@ -33495,19 +33504,19 @@
         <v>28</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>2960</v>
+        <v>2954</v>
       </c>
       <c r="H72" t="s">
         <v>30</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>2949</v>
+        <v>2943</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>2967</v>
+        <v>2961</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>2950</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -33515,7 +33524,7 @@
         <v>1799</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>2962</v>
+        <v>2956</v>
       </c>
       <c r="C73" t="s">
         <v>109</v>
@@ -33539,10 +33548,10 @@
         <v>1658</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>2967</v>
+        <v>2961</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>2951</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -33550,7 +33559,7 @@
         <v>2056</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>2963</v>
+        <v>2957</v>
       </c>
       <c r="C74" t="s">
         <v>109</v>
@@ -33574,10 +33583,10 @@
         <v>1658</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>2967</v>
+        <v>2961</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>2952</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -33585,7 +33594,7 @@
         <v>2029</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>2964</v>
+        <v>2958</v>
       </c>
       <c r="C75" t="s">
         <v>109</v>
@@ -33609,10 +33618,10 @@
         <v>1658</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>2967</v>
+        <v>2961</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>2953</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -33620,7 +33629,7 @@
         <v>1657</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>2965</v>
+        <v>2959</v>
       </c>
       <c r="C76" t="s">
         <v>109</v>
@@ -33644,10 +33653,10 @@
         <v>1658</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>2967</v>
+        <v>2961</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>2954</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -33676,10 +33685,10 @@
         <v>1658</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>2966</v>
+        <v>2960</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>2955</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -33708,10 +33717,10 @@
         <v>1658</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>2966</v>
+        <v>2960</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>2956</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -33740,10 +33749,10 @@
         <v>1658</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>2966</v>
+        <v>2960</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>2957</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -33772,10 +33781,10 @@
         <v>1658</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>2966</v>
+        <v>2960</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>2958</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -33804,10 +33813,10 @@
         <v>1658</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>2966</v>
+        <v>2960</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>2959</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -33815,7 +33824,7 @@
         <v>1533</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>2970</v>
+        <v>2964</v>
       </c>
       <c r="C82" t="s">
         <v>109</v>
@@ -33836,7 +33845,7 @@
         <v>30</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>2969</v>
+        <v>2963</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -34002,7 +34011,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
-        <v>2968</v>
+        <v>2962</v>
       </c>
       <c r="B88" t="s">
         <v>2017</v>
@@ -34023,10 +34032,10 @@
         <v>2020</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>2976</v>
+        <v>2970</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>2983</v>
+        <v>2977</v>
       </c>
       <c r="K88" s="10"/>
     </row>
@@ -34059,10 +34068,10 @@
         <v>16</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>2413</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -34094,10 +34103,10 @@
         <v>16</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -34129,10 +34138,10 @@
         <v>16</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>2415</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -34452,10 +34461,10 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="8" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
       <c r="C101" t="s">
         <v>109</v>
@@ -34479,10 +34488,10 @@
         <v>16</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>2419</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -34514,10 +34523,10 @@
         <v>16</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>2420</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -34549,10 +34558,10 @@
         <v>16</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>2421</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -34581,10 +34590,10 @@
         <v>16</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>2422</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -34592,7 +34601,7 @@
         <v>1645</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
       <c r="C105" t="s">
         <v>297</v>
@@ -34613,10 +34622,10 @@
         <v>16</v>
       </c>
       <c r="J105" s="10" t="s">
+        <v>2413</v>
+      </c>
+      <c r="K105" s="10" t="s">
         <v>2418</v>
-      </c>
-      <c r="K105" s="10" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -34624,7 +34633,7 @@
         <v>2048</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>2473</v>
+        <v>2467</v>
       </c>
       <c r="C106" t="s">
         <v>418</v>
@@ -34645,10 +34654,10 @@
         <v>16</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>2424</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -34656,7 +34665,7 @@
         <v>1537</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
       <c r="C107" t="s">
         <v>1535</v>
@@ -34680,10 +34689,10 @@
         <v>16</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -34715,10 +34724,10 @@
         <v>16</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -34750,10 +34759,10 @@
         <v>16</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -34785,10 +34794,10 @@
         <v>16</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -34820,10 +34829,10 @@
         <v>16</v>
       </c>
       <c r="J111" s="10" t="s">
+        <v>2437</v>
+      </c>
+      <c r="K111" s="10" t="s">
         <v>2442</v>
-      </c>
-      <c r="K111" s="10" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -34855,10 +34864,10 @@
         <v>16</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="K112" s="10" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -34890,10 +34899,10 @@
         <v>16</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -34922,18 +34931,18 @@
         <v>16</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>2425</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="C115" t="s">
         <v>418</v>
@@ -34957,10 +34966,10 @@
         <v>16</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -34992,10 +35001,10 @@
         <v>16</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -35024,10 +35033,10 @@
         <v>16</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>2426</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -35056,10 +35065,10 @@
         <v>16</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>2427</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -35067,7 +35076,7 @@
         <v>1617</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
       <c r="C119" t="s">
         <v>109</v>
@@ -35088,10 +35097,10 @@
         <v>16</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -35099,7 +35108,7 @@
         <v>1935</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>2472</v>
+        <v>2466</v>
       </c>
       <c r="C120" t="s">
         <v>109</v>
@@ -35120,10 +35129,10 @@
         <v>16</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -35131,7 +35140,7 @@
         <v>1650</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>2470</v>
+        <v>2464</v>
       </c>
       <c r="C121" t="s">
         <v>109</v>
@@ -35152,10 +35161,10 @@
         <v>16</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -35163,7 +35172,7 @@
         <v>1945</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>2469</v>
+        <v>2463</v>
       </c>
       <c r="C122" t="s">
         <v>109</v>
@@ -35184,10 +35193,10 @@
         <v>16</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -35195,7 +35204,7 @@
         <v>1805</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="C123" t="s">
         <v>297</v>
@@ -35216,10 +35225,10 @@
         <v>16</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -35248,10 +35257,10 @@
         <v>16</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -35259,7 +35268,7 @@
         <v>1959</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="C125" t="s">
         <v>109</v>
@@ -35283,10 +35292,10 @@
         <v>16</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>2394</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -35294,10 +35303,10 @@
         <v>1558</v>
       </c>
       <c r="B126" s="8" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>2506</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>2512</v>
       </c>
       <c r="E126" t="s">
         <v>1557</v>
@@ -35309,16 +35318,16 @@
         <v>646</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="I126" t="s">
         <v>451</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>2509</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -35326,10 +35335,10 @@
         <v>2006</v>
       </c>
       <c r="B127" s="8" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>2507</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>2513</v>
       </c>
       <c r="E127" t="s">
         <v>2005</v>
@@ -35347,10 +35356,10 @@
         <v>451</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>2511</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -35379,10 +35388,10 @@
         <v>451</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>2510</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -35422,7 +35431,7 @@
         <v>1623</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>2972</v>
+        <v>2966</v>
       </c>
       <c r="C130" t="s">
         <v>1621</v>
@@ -35443,13 +35452,13 @@
         <v>30</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>2971</v>
+        <v>2965</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>2973</v>
+        <v>2967</v>
       </c>
       <c r="K130" s="10" t="s">
-        <v>2974</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -35457,31 +35466,31 @@
         <v>1607</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>2536</v>
+        <v>2530</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>2872</v>
+        <v>2866</v>
       </c>
       <c r="E131" t="s">
         <v>1606</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>2520</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -35489,31 +35498,31 @@
         <v>1863</v>
       </c>
       <c r="B132" t="s">
-        <v>2537</v>
+        <v>2531</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>2872</v>
+        <v>2866</v>
       </c>
       <c r="E132" t="s">
         <v>1862</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G132" t="s">
         <v>646</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I132" t="s">
         <v>783</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K132" s="13" t="s">
-        <v>2521</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -35521,31 +35530,31 @@
         <v>1992</v>
       </c>
       <c r="B133" t="s">
-        <v>2538</v>
+        <v>2532</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>2804</v>
+        <v>2798</v>
       </c>
       <c r="E133" t="s">
         <v>1991</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>2809</v>
+        <v>2803</v>
       </c>
       <c r="G133" t="s">
         <v>29</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I133" t="s">
         <v>783</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K133" s="10" t="s">
-        <v>2813</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -35553,31 +35562,31 @@
         <v>2043</v>
       </c>
       <c r="B134" t="s">
-        <v>2539</v>
+        <v>2533</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>2873</v>
+        <v>2867</v>
       </c>
       <c r="E134" t="s">
         <v>2042</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G134" t="s">
         <v>646</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I134" t="s">
         <v>783</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K134" s="10" t="s">
-        <v>2814</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -35585,31 +35594,31 @@
         <v>1602</v>
       </c>
       <c r="B135" t="s">
-        <v>2540</v>
+        <v>2534</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>2803</v>
+        <v>2797</v>
       </c>
       <c r="E135" t="s">
         <v>1601</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>2809</v>
+        <v>2803</v>
       </c>
       <c r="G135" t="s">
         <v>29</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I135" t="s">
         <v>783</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K135" s="10" t="s">
-        <v>2811</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -35617,31 +35626,31 @@
         <v>2078</v>
       </c>
       <c r="B136" t="s">
-        <v>2541</v>
+        <v>2535</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>2803</v>
+        <v>2797</v>
       </c>
       <c r="E136" t="s">
         <v>2077</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G136" t="s">
         <v>646</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I136" t="s">
         <v>783</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K136" s="10" t="s">
-        <v>2812</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -35649,31 +35658,31 @@
         <v>1821</v>
       </c>
       <c r="B137" t="s">
-        <v>2542</v>
+        <v>2536</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>2874</v>
+        <v>2868</v>
       </c>
       <c r="E137" t="s">
         <v>1820</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G137" t="s">
         <v>29</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I137" t="s">
         <v>783</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K137" s="10" t="s">
-        <v>2746</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -35681,31 +35690,31 @@
         <v>1689</v>
       </c>
       <c r="B138" t="s">
-        <v>2543</v>
+        <v>2537</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>2874</v>
+        <v>2868</v>
       </c>
       <c r="E138" t="s">
         <v>1688</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G138" t="s">
         <v>646</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I138" t="s">
         <v>783</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K138" s="10" t="s">
-        <v>2745</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -35713,31 +35722,31 @@
         <v>1641</v>
       </c>
       <c r="B139" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E139" t="s">
         <v>1640</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>2856</v>
+        <v>2850</v>
       </c>
       <c r="G139" t="s">
         <v>29</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I139" t="s">
         <v>783</v>
       </c>
       <c r="J139" s="10" t="s">
+        <v>2709</v>
+      </c>
+      <c r="K139" s="9" t="s">
         <v>2715</v>
-      </c>
-      <c r="K139" s="9" t="s">
-        <v>2721</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -35745,31 +35754,31 @@
         <v>1666</v>
       </c>
       <c r="B140" t="s">
-        <v>2545</v>
+        <v>2539</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E140" t="s">
         <v>1665</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>2857</v>
+        <v>2851</v>
       </c>
       <c r="G140" t="s">
         <v>646</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I140" t="s">
         <v>783</v>
       </c>
       <c r="J140" s="9" t="s">
+        <v>2710</v>
+      </c>
+      <c r="K140" s="9" t="s">
         <v>2716</v>
-      </c>
-      <c r="K140" s="9" t="s">
-        <v>2722</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -35777,31 +35786,31 @@
         <v>1801</v>
       </c>
       <c r="B141" t="s">
-        <v>2546</v>
+        <v>2540</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E141" t="s">
         <v>1800</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>2858</v>
+        <v>2852</v>
       </c>
       <c r="G141" t="s">
         <v>29</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I141" t="s">
         <v>783</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>2723</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -35809,31 +35818,31 @@
         <v>1879</v>
       </c>
       <c r="B142" t="s">
-        <v>2547</v>
+        <v>2541</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E142" t="s">
         <v>1878</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>2859</v>
+        <v>2853</v>
       </c>
       <c r="G142" t="s">
         <v>646</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I142" t="s">
         <v>783</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>2724</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -35841,31 +35850,31 @@
         <v>1734</v>
       </c>
       <c r="B143" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E143" t="s">
         <v>1733</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>2860</v>
+        <v>2854</v>
       </c>
       <c r="G143" t="s">
         <v>29</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I143" t="s">
         <v>783</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>2725</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -35873,31 +35882,31 @@
         <v>1612</v>
       </c>
       <c r="B144" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E144" t="s">
         <v>1611</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>2861</v>
+        <v>2855</v>
       </c>
       <c r="G144" t="s">
         <v>646</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I144" t="s">
         <v>783</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>2726</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -35905,31 +35914,31 @@
         <v>1889</v>
       </c>
       <c r="B145" t="s">
-        <v>2550</v>
+        <v>2544</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E145" t="s">
         <v>1888</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>2862</v>
+        <v>2856</v>
       </c>
       <c r="G145" t="s">
         <v>29</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I145" t="s">
         <v>783</v>
       </c>
       <c r="J145" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>2727</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -35937,31 +35946,31 @@
         <v>1867</v>
       </c>
       <c r="B146" t="s">
-        <v>2551</v>
+        <v>2545</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E146" t="s">
         <v>1866</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>2863</v>
+        <v>2857</v>
       </c>
       <c r="G146" t="s">
         <v>646</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I146" t="s">
         <v>783</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>2728</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -35969,31 +35978,31 @@
         <v>1717</v>
       </c>
       <c r="B147" t="s">
-        <v>2552</v>
+        <v>2546</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E147" t="s">
         <v>1716</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>2864</v>
+        <v>2858</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I147" t="s">
         <v>783</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>2729</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -36001,31 +36010,31 @@
         <v>1746</v>
       </c>
       <c r="B148" t="s">
-        <v>2553</v>
+        <v>2547</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E148" t="s">
         <v>1745</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>2865</v>
+        <v>2859</v>
       </c>
       <c r="G148" t="s">
         <v>646</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I148" t="s">
         <v>783</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>2730</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -36033,31 +36042,31 @@
         <v>1674</v>
       </c>
       <c r="B149" t="s">
-        <v>2554</v>
+        <v>2548</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E149" t="s">
         <v>1673</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>2866</v>
+        <v>2860</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I149" t="s">
         <v>783</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>2731</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -36065,31 +36074,31 @@
         <v>2070</v>
       </c>
       <c r="B150" t="s">
-        <v>2555</v>
+        <v>2549</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E150" t="s">
         <v>2069</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>2867</v>
+        <v>2861</v>
       </c>
       <c r="G150" t="s">
         <v>646</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I150" t="s">
         <v>783</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>2732</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -36097,31 +36106,31 @@
         <v>1697</v>
       </c>
       <c r="B151" t="s">
-        <v>2556</v>
+        <v>2550</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E151" t="s">
         <v>1696</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>2868</v>
+        <v>2862</v>
       </c>
       <c r="G151" t="s">
         <v>29</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I151" t="s">
         <v>783</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>2733</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -36129,31 +36138,31 @@
         <v>1964</v>
       </c>
       <c r="B152" t="s">
-        <v>2557</v>
+        <v>2551</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="E152" t="s">
         <v>1963</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>2869</v>
+        <v>2863</v>
       </c>
       <c r="G152" t="s">
         <v>646</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="I152" t="s">
         <v>783</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>2734</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -36161,31 +36170,31 @@
         <v>2002</v>
       </c>
       <c r="B153" t="s">
-        <v>2558</v>
+        <v>2552</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>2876</v>
+        <v>2870</v>
       </c>
       <c r="E153" t="s">
         <v>2001</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I153" t="s">
         <v>783</v>
       </c>
       <c r="J153" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>2735</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -36193,31 +36202,31 @@
         <v>1823</v>
       </c>
       <c r="B154" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>2876</v>
+        <v>2870</v>
       </c>
       <c r="E154" t="s">
         <v>1822</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G154" t="s">
         <v>646</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I154" t="s">
         <v>783</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>2736</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -36225,31 +36234,31 @@
         <v>1652</v>
       </c>
       <c r="B155" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>2877</v>
+        <v>2871</v>
       </c>
       <c r="E155" t="s">
         <v>1651</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G155" t="s">
         <v>29</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I155" t="s">
         <v>783</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>2737</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -36257,16 +36266,16 @@
         <v>1741</v>
       </c>
       <c r="B156" t="s">
-        <v>2561</v>
+        <v>2555</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>2877</v>
+        <v>2871</v>
       </c>
       <c r="E156" t="s">
         <v>1740</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G156" t="s">
         <v>646</v>
@@ -36278,10 +36287,10 @@
         <v>783</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>2738</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -36289,31 +36298,31 @@
         <v>1861</v>
       </c>
       <c r="B157" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>2878</v>
+        <v>2872</v>
       </c>
       <c r="E157" t="s">
         <v>1860</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="I157" t="s">
         <v>783</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>2739</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -36321,16 +36330,16 @@
         <v>1869</v>
       </c>
       <c r="B158" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>2878</v>
+        <v>2872</v>
       </c>
       <c r="E158" t="s">
         <v>1868</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G158" t="s">
         <v>646</v>
@@ -36342,10 +36351,10 @@
         <v>783</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>2740</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -36353,16 +36362,16 @@
         <v>1691</v>
       </c>
       <c r="B159" t="s">
-        <v>2564</v>
+        <v>2558</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>2879</v>
+        <v>2873</v>
       </c>
       <c r="E159" t="s">
         <v>1690</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -36374,10 +36383,10 @@
         <v>783</v>
       </c>
       <c r="J159" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>2741</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -36385,16 +36394,16 @@
         <v>1670</v>
       </c>
       <c r="B160" t="s">
-        <v>2565</v>
+        <v>2559</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>2879</v>
+        <v>2873</v>
       </c>
       <c r="E160" t="s">
         <v>1669</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G160" t="s">
         <v>646</v>
@@ -36406,10 +36415,10 @@
         <v>783</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>2742</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -36417,16 +36426,16 @@
         <v>1997</v>
       </c>
       <c r="B161" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>2806</v>
+        <v>2800</v>
       </c>
       <c r="E161" t="s">
         <v>1996</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>2809</v>
+        <v>2803</v>
       </c>
       <c r="G161" t="s">
         <v>29</v>
@@ -36438,10 +36447,10 @@
         <v>783</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K161" s="10" t="s">
-        <v>2815</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -36449,16 +36458,16 @@
         <v>2031</v>
       </c>
       <c r="B162" t="s">
-        <v>2567</v>
+        <v>2561</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>2880</v>
+        <v>2874</v>
       </c>
       <c r="E162" t="s">
         <v>2030</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G162" t="s">
         <v>646</v>
@@ -36470,10 +36479,10 @@
         <v>783</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K162" s="10" t="s">
-        <v>2816</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -36481,16 +36490,16 @@
         <v>1730</v>
       </c>
       <c r="B163" t="s">
-        <v>2568</v>
+        <v>2562</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>2805</v>
+        <v>2799</v>
       </c>
       <c r="E163" t="s">
         <v>1729</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>2809</v>
+        <v>2803</v>
       </c>
       <c r="G163" t="s">
         <v>29</v>
@@ -36502,10 +36511,10 @@
         <v>783</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K163" s="10" t="s">
-        <v>2817</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -36513,16 +36522,16 @@
         <v>1834</v>
       </c>
       <c r="B164" t="s">
-        <v>2569</v>
+        <v>2563</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>2881</v>
+        <v>2875</v>
       </c>
       <c r="E164" t="s">
         <v>1833</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G164" t="s">
         <v>646</v>
@@ -36534,10 +36543,10 @@
         <v>783</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K164" s="10" t="s">
-        <v>2818</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -36545,16 +36554,16 @@
         <v>1662</v>
       </c>
       <c r="B165" t="s">
-        <v>2570</v>
+        <v>2564</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>2882</v>
+        <v>2876</v>
       </c>
       <c r="E165" t="s">
         <v>1661</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>2809</v>
+        <v>2803</v>
       </c>
       <c r="G165" t="s">
         <v>29</v>
@@ -36566,10 +36575,10 @@
         <v>783</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K165" s="10" t="s">
-        <v>2819</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -36577,16 +36586,16 @@
         <v>1925</v>
       </c>
       <c r="B166" t="s">
-        <v>2571</v>
+        <v>2565</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>2882</v>
+        <v>2876</v>
       </c>
       <c r="E166" t="s">
         <v>1924</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G166" t="s">
         <v>646</v>
@@ -36598,10 +36607,10 @@
         <v>783</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K166" s="10" t="s">
-        <v>2820</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -36609,16 +36618,16 @@
         <v>1631</v>
       </c>
       <c r="B167" t="s">
-        <v>2572</v>
+        <v>2566</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>2883</v>
+        <v>2877</v>
       </c>
       <c r="E167" t="s">
         <v>1630</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>2809</v>
+        <v>2803</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -36630,10 +36639,10 @@
         <v>783</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K167" s="10" t="s">
-        <v>2821</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -36641,16 +36650,16 @@
         <v>1817</v>
       </c>
       <c r="B168" t="s">
-        <v>2573</v>
+        <v>2567</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>2807</v>
+        <v>2801</v>
       </c>
       <c r="E168" t="s">
         <v>1816</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G168" t="s">
         <v>646</v>
@@ -36662,42 +36671,42 @@
         <v>783</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K168" s="10" t="s">
-        <v>2822</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="8" t="s">
-        <v>2517</v>
+        <v>2511</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>2630</v>
+        <v>2624</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>2681</v>
+        <v>2675</v>
       </c>
       <c r="E169" t="s">
         <v>2049</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>2870</v>
+        <v>2864</v>
       </c>
       <c r="G169" t="s">
         <v>646</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>2682</v>
+        <v>2676</v>
       </c>
       <c r="I169" t="s">
         <v>783</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>2684</v>
+        <v>2678</v>
       </c>
       <c r="K169" s="10" t="s">
-        <v>2683</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -36705,16 +36714,16 @@
         <v>1933</v>
       </c>
       <c r="B170" t="s">
-        <v>2574</v>
+        <v>2568</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>2884</v>
+        <v>2878</v>
       </c>
       <c r="E170" t="s">
         <v>1932</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -36726,10 +36735,10 @@
         <v>783</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K170" s="10" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -36737,16 +36746,16 @@
         <v>1986</v>
       </c>
       <c r="B171" t="s">
-        <v>2575</v>
+        <v>2569</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>2884</v>
+        <v>2878</v>
       </c>
       <c r="E171" t="s">
         <v>1985</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G171" t="s">
         <v>646</v>
@@ -36758,10 +36767,10 @@
         <v>783</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K171" s="10" t="s">
-        <v>2748</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -36769,16 +36778,16 @@
         <v>1743</v>
       </c>
       <c r="B172" t="s">
-        <v>2576</v>
+        <v>2570</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>2885</v>
+        <v>2879</v>
       </c>
       <c r="E172" t="s">
         <v>1742</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G172" t="s">
         <v>29</v>
@@ -36790,10 +36799,10 @@
         <v>783</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K172" s="10" t="s">
-        <v>2749</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -36801,16 +36810,16 @@
         <v>2041</v>
       </c>
       <c r="B173" t="s">
-        <v>2577</v>
+        <v>2571</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>2885</v>
+        <v>2879</v>
       </c>
       <c r="E173" t="s">
         <v>2040</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G173" t="s">
         <v>646</v>
@@ -36822,10 +36831,10 @@
         <v>783</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K173" s="10" t="s">
-        <v>2750</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -36833,16 +36842,16 @@
         <v>1715</v>
       </c>
       <c r="B174" t="s">
-        <v>2578</v>
+        <v>2572</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>2886</v>
+        <v>2880</v>
       </c>
       <c r="E174" t="s">
         <v>1714</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G174" t="s">
         <v>29</v>
@@ -36854,10 +36863,10 @@
         <v>783</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K174" s="10" t="s">
-        <v>2751</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -36865,16 +36874,16 @@
         <v>1793</v>
       </c>
       <c r="B175" t="s">
-        <v>2579</v>
+        <v>2573</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>2886</v>
+        <v>2880</v>
       </c>
       <c r="E175" t="s">
         <v>1792</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G175" t="s">
         <v>646</v>
@@ -36886,10 +36895,10 @@
         <v>783</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K175" s="10" t="s">
-        <v>2752</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -36897,16 +36906,16 @@
         <v>1827</v>
       </c>
       <c r="B176" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>2887</v>
+        <v>2881</v>
       </c>
       <c r="E176" t="s">
         <v>1826</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G176" t="s">
         <v>29</v>
@@ -36918,10 +36927,10 @@
         <v>783</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K176" s="10" t="s">
-        <v>2753</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -36929,16 +36938,16 @@
         <v>1788</v>
       </c>
       <c r="B177" t="s">
-        <v>2581</v>
+        <v>2575</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>2887</v>
+        <v>2881</v>
       </c>
       <c r="E177" t="s">
         <v>1787</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G177" t="s">
         <v>646</v>
@@ -36950,10 +36959,10 @@
         <v>783</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K177" s="10" t="s">
-        <v>2754</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -36961,16 +36970,16 @@
         <v>1912</v>
       </c>
       <c r="B178" t="s">
-        <v>2582</v>
+        <v>2576</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>2888</v>
+        <v>2882</v>
       </c>
       <c r="E178" t="s">
         <v>1911</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G178" t="s">
         <v>29</v>
@@ -36982,10 +36991,10 @@
         <v>783</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K178" s="10" t="s">
-        <v>2755</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -36993,16 +37002,16 @@
         <v>1811</v>
       </c>
       <c r="B179" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>2888</v>
+        <v>2882</v>
       </c>
       <c r="E179" t="s">
         <v>1810</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G179" t="s">
         <v>646</v>
@@ -37014,10 +37023,10 @@
         <v>783</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K179" s="10" t="s">
-        <v>2756</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -37025,16 +37034,16 @@
         <v>1748</v>
       </c>
       <c r="B180" t="s">
-        <v>2584</v>
+        <v>2578</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="E180" t="s">
         <v>1747</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G180" t="s">
         <v>29</v>
@@ -37046,10 +37055,10 @@
         <v>783</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K180" s="10" t="s">
-        <v>2757</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -37057,16 +37066,16 @@
         <v>1907</v>
       </c>
       <c r="B181" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="E181" t="s">
         <v>1906</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G181" t="s">
         <v>646</v>
@@ -37078,10 +37087,10 @@
         <v>783</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K181" s="10" t="s">
-        <v>2758</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -37089,16 +37098,16 @@
         <v>1825</v>
       </c>
       <c r="B182" t="s">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>2890</v>
+        <v>2884</v>
       </c>
       <c r="E182" t="s">
         <v>1824</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G182" t="s">
         <v>29</v>
@@ -37110,10 +37119,10 @@
         <v>783</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K182" s="10" t="s">
-        <v>2759</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -37121,16 +37130,16 @@
         <v>1920</v>
       </c>
       <c r="B183" t="s">
-        <v>2587</v>
+        <v>2581</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>2890</v>
+        <v>2884</v>
       </c>
       <c r="E183" t="s">
         <v>1919</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G183" t="s">
         <v>646</v>
@@ -37142,10 +37151,10 @@
         <v>783</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K183" s="10" t="s">
-        <v>2760</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -37153,16 +37162,16 @@
         <v>1881</v>
       </c>
       <c r="B184" t="s">
-        <v>2588</v>
+        <v>2582</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>2891</v>
+        <v>2885</v>
       </c>
       <c r="E184" t="s">
         <v>1880</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G184" t="s">
         <v>29</v>
@@ -37174,10 +37183,10 @@
         <v>783</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K184" s="10" t="s">
-        <v>2761</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -37185,16 +37194,16 @@
         <v>1999</v>
       </c>
       <c r="B185" t="s">
-        <v>2589</v>
+        <v>2583</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>2891</v>
+        <v>2885</v>
       </c>
       <c r="E185" t="s">
         <v>1998</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G185" t="s">
         <v>646</v>
@@ -37206,10 +37215,10 @@
         <v>783</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K185" s="10" t="s">
-        <v>2762</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -37217,16 +37226,16 @@
         <v>1857</v>
       </c>
       <c r="B186" t="s">
-        <v>2590</v>
+        <v>2584</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>2892</v>
+        <v>2886</v>
       </c>
       <c r="E186" t="s">
         <v>1856</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -37238,10 +37247,10 @@
         <v>783</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K186" s="10" t="s">
-        <v>2763</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -37249,16 +37258,16 @@
         <v>1954</v>
       </c>
       <c r="B187" t="s">
-        <v>2591</v>
+        <v>2585</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>2892</v>
+        <v>2886</v>
       </c>
       <c r="E187" t="s">
         <v>1953</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G187" t="s">
         <v>646</v>
@@ -37270,10 +37279,10 @@
         <v>783</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K187" s="10" t="s">
-        <v>2764</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -37281,16 +37290,16 @@
         <v>1705</v>
       </c>
       <c r="B188" t="s">
-        <v>2592</v>
+        <v>2586</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>2893</v>
+        <v>2887</v>
       </c>
       <c r="E188" t="s">
         <v>1704</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G188" t="s">
         <v>29</v>
@@ -37302,10 +37311,10 @@
         <v>783</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K188" s="10" t="s">
-        <v>2765</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -37313,16 +37322,16 @@
         <v>1978</v>
       </c>
       <c r="B189" t="s">
-        <v>2593</v>
+        <v>2587</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>2893</v>
+        <v>2887</v>
       </c>
       <c r="E189" t="s">
         <v>1977</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G189" t="s">
         <v>646</v>
@@ -37334,10 +37343,10 @@
         <v>783</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K189" s="10" t="s">
-        <v>2766</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -37345,16 +37354,16 @@
         <v>1732</v>
       </c>
       <c r="B190" t="s">
-        <v>2594</v>
+        <v>2588</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>2894</v>
+        <v>2888</v>
       </c>
       <c r="E190" t="s">
         <v>1731</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G190" t="s">
         <v>29</v>
@@ -37366,10 +37375,10 @@
         <v>783</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K190" s="10" t="s">
-        <v>2767</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -37377,16 +37386,16 @@
         <v>1723</v>
       </c>
       <c r="B191" t="s">
-        <v>2595</v>
+        <v>2589</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>2894</v>
+        <v>2888</v>
       </c>
       <c r="E191" t="s">
         <v>1722</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G191" t="s">
         <v>646</v>
@@ -37398,10 +37407,10 @@
         <v>783</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K191" s="10" t="s">
-        <v>2768</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -37409,16 +37418,16 @@
         <v>1988</v>
       </c>
       <c r="B192" t="s">
-        <v>2596</v>
+        <v>2590</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>2895</v>
+        <v>2889</v>
       </c>
       <c r="E192" t="s">
         <v>1987</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G192" t="s">
         <v>29</v>
@@ -37430,10 +37439,10 @@
         <v>783</v>
       </c>
       <c r="J192" s="9" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="K192" s="10" t="s">
-        <v>2769</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -37441,16 +37450,16 @@
         <v>2013</v>
       </c>
       <c r="B193" t="s">
-        <v>2597</v>
+        <v>2591</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>2895</v>
+        <v>2889</v>
       </c>
       <c r="E193" t="s">
         <v>2012</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G193" t="s">
         <v>646</v>
@@ -37462,10 +37471,10 @@
         <v>783</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="K193" s="10" t="s">
-        <v>2770</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -37473,16 +37482,16 @@
         <v>1719</v>
       </c>
       <c r="B194" t="s">
-        <v>2598</v>
+        <v>2592</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>2896</v>
+        <v>2890</v>
       </c>
       <c r="E194" t="s">
         <v>1718</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G194" t="s">
         <v>29</v>
@@ -37494,10 +37503,10 @@
         <v>783</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K194" s="13" t="s">
-        <v>2522</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -37505,16 +37514,16 @@
         <v>1845</v>
       </c>
       <c r="B195" t="s">
-        <v>2599</v>
+        <v>2593</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>2896</v>
+        <v>2890</v>
       </c>
       <c r="E195" t="s">
         <v>1844</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G195" t="s">
         <v>646</v>
@@ -37526,10 +37535,10 @@
         <v>783</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K195" s="13" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -37537,16 +37546,16 @@
         <v>2004</v>
       </c>
       <c r="B196" t="s">
-        <v>2600</v>
+        <v>2594</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>2897</v>
+        <v>2891</v>
       </c>
       <c r="E196" t="s">
         <v>2003</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G196" t="s">
         <v>29</v>
@@ -37558,10 +37567,10 @@
         <v>783</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K196" s="13" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -37569,16 +37578,16 @@
         <v>1968</v>
       </c>
       <c r="B197" t="s">
-        <v>2601</v>
+        <v>2595</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>2897</v>
+        <v>2891</v>
       </c>
       <c r="E197" t="s">
         <v>1967</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G197" t="s">
         <v>646</v>
@@ -37590,10 +37599,10 @@
         <v>783</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K197" s="13" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -37601,16 +37610,16 @@
         <v>1668</v>
       </c>
       <c r="B198" t="s">
-        <v>2602</v>
+        <v>2596</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
       <c r="E198" t="s">
         <v>1667</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -37622,10 +37631,10 @@
         <v>783</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K198" s="13" t="s">
-        <v>2526</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -37633,16 +37642,16 @@
         <v>1902</v>
       </c>
       <c r="B199" t="s">
-        <v>2603</v>
+        <v>2597</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
       <c r="E199" t="s">
         <v>1901</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G199" t="s">
         <v>646</v>
@@ -37654,10 +37663,10 @@
         <v>783</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K199" s="13" t="s">
-        <v>2527</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -37665,16 +37674,16 @@
         <v>1664</v>
       </c>
       <c r="B200" t="s">
-        <v>2604</v>
+        <v>2598</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>2899</v>
+        <v>2893</v>
       </c>
       <c r="E200" t="s">
         <v>1663</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="G200" t="s">
         <v>29</v>
@@ -37686,10 +37695,10 @@
         <v>783</v>
       </c>
       <c r="J200" s="10" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="K200" s="9" t="s">
-        <v>2743</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -37697,16 +37706,16 @@
         <v>1952</v>
       </c>
       <c r="B201" t="s">
-        <v>2605</v>
+        <v>2599</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>2899</v>
+        <v>2893</v>
       </c>
       <c r="E201" t="s">
         <v>1951</v>
       </c>
       <c r="F201" t="s">
-        <v>2717</v>
+        <v>2711</v>
       </c>
       <c r="G201" t="s">
         <v>646</v>
@@ -37718,10 +37727,10 @@
         <v>783</v>
       </c>
       <c r="J201" s="9" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="K201" s="9" t="s">
-        <v>2744</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -37729,16 +37738,16 @@
         <v>2051</v>
       </c>
       <c r="B202" t="s">
-        <v>2606</v>
+        <v>2600</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>2900</v>
+        <v>2894</v>
       </c>
       <c r="E202" t="s">
         <v>2050</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G202" t="s">
         <v>29</v>
@@ -37750,10 +37759,10 @@
         <v>783</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K202" s="13" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -37761,16 +37770,16 @@
         <v>1678</v>
       </c>
       <c r="B203" t="s">
-        <v>2607</v>
+        <v>2601</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>2900</v>
+        <v>2894</v>
       </c>
       <c r="E203" t="s">
         <v>1677</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G203" t="s">
         <v>646</v>
@@ -37782,10 +37791,10 @@
         <v>783</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K203" s="13" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -37793,16 +37802,16 @@
         <v>1803</v>
       </c>
       <c r="B204" t="s">
-        <v>2608</v>
+        <v>2602</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>2901</v>
+        <v>2895</v>
       </c>
       <c r="E204" t="s">
         <v>1802</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G204" t="s">
         <v>29</v>
@@ -37814,10 +37823,10 @@
         <v>783</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K204" s="13" t="s">
-        <v>2530</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -37825,16 +37834,16 @@
         <v>1966</v>
       </c>
       <c r="B205" t="s">
-        <v>2609</v>
+        <v>2603</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>2901</v>
+        <v>2895</v>
       </c>
       <c r="E205" t="s">
         <v>1965</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G205" t="s">
         <v>646</v>
@@ -37846,10 +37855,10 @@
         <v>783</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K205" s="13" t="s">
-        <v>2531</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -37857,16 +37866,16 @@
         <v>1592</v>
       </c>
       <c r="B206" t="s">
-        <v>2610</v>
+        <v>2604</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>2902</v>
+        <v>2896</v>
       </c>
       <c r="E206" t="s">
         <v>1591</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G206" t="s">
         <v>29</v>
@@ -37878,10 +37887,10 @@
         <v>783</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K206" s="13" t="s">
-        <v>2532</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -37889,16 +37898,16 @@
         <v>1615</v>
       </c>
       <c r="B207" t="s">
-        <v>2611</v>
+        <v>2605</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>2902</v>
+        <v>2896</v>
       </c>
       <c r="E207" t="s">
         <v>1614</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G207" t="s">
         <v>646</v>
@@ -37910,10 +37919,10 @@
         <v>783</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K207" s="13" t="s">
-        <v>2533</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -37921,16 +37930,16 @@
         <v>1672</v>
       </c>
       <c r="B208" t="s">
-        <v>2612</v>
+        <v>2606</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>2834</v>
+        <v>2828</v>
       </c>
       <c r="E208" t="s">
         <v>1671</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="G208" t="s">
         <v>29</v>
@@ -37942,10 +37951,10 @@
         <v>783</v>
       </c>
       <c r="J208" s="10" t="s">
-        <v>2826</v>
+        <v>2820</v>
       </c>
       <c r="K208" s="10" t="s">
-        <v>2837</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -37953,16 +37962,16 @@
         <v>2016</v>
       </c>
       <c r="B209" t="s">
-        <v>2613</v>
+        <v>2607</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>2834</v>
+        <v>2828</v>
       </c>
       <c r="E209" t="s">
         <v>2015</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G209" t="s">
         <v>646</v>
@@ -37974,10 +37983,10 @@
         <v>783</v>
       </c>
       <c r="J209" s="10" t="s">
-        <v>2827</v>
+        <v>2821</v>
       </c>
       <c r="K209" s="10" t="s">
-        <v>2838</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -37985,16 +37994,16 @@
         <v>1847</v>
       </c>
       <c r="B210" t="s">
-        <v>2614</v>
+        <v>2608</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>2829</v>
+        <v>2823</v>
       </c>
       <c r="E210" t="s">
         <v>1846</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="G210" t="s">
         <v>29</v>
@@ -38006,10 +38015,10 @@
         <v>783</v>
       </c>
       <c r="J210" s="10" t="s">
-        <v>2826</v>
+        <v>2820</v>
       </c>
       <c r="K210" s="10" t="s">
-        <v>2839</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -38017,16 +38026,16 @@
         <v>1660</v>
       </c>
       <c r="B211" t="s">
-        <v>2615</v>
+        <v>2609</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>2829</v>
+        <v>2823</v>
       </c>
       <c r="E211" t="s">
         <v>1659</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G211" t="s">
         <v>646</v>
@@ -38038,10 +38047,10 @@
         <v>783</v>
       </c>
       <c r="J211" s="10" t="s">
-        <v>2827</v>
+        <v>2821</v>
       </c>
       <c r="K211" s="10" t="s">
-        <v>2840</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -38049,16 +38058,16 @@
         <v>1680</v>
       </c>
       <c r="B212" t="s">
-        <v>2616</v>
+        <v>2610</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>2832</v>
+        <v>2826</v>
       </c>
       <c r="E212" t="s">
         <v>1679</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="G212" t="s">
         <v>29</v>
@@ -38070,10 +38079,10 @@
         <v>783</v>
       </c>
       <c r="J212" s="10" t="s">
-        <v>2826</v>
+        <v>2820</v>
       </c>
       <c r="K212" s="10" t="s">
-        <v>2841</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -38081,16 +38090,16 @@
         <v>1990</v>
       </c>
       <c r="B213" t="s">
-        <v>2617</v>
+        <v>2611</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>2832</v>
+        <v>2826</v>
       </c>
       <c r="E213" t="s">
         <v>1989</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G213" t="s">
         <v>646</v>
@@ -38102,10 +38111,10 @@
         <v>783</v>
       </c>
       <c r="J213" s="10" t="s">
-        <v>2827</v>
+        <v>2821</v>
       </c>
       <c r="K213" s="10" t="s">
-        <v>2842</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -38113,16 +38122,16 @@
         <v>1994</v>
       </c>
       <c r="B214" t="s">
-        <v>2618</v>
+        <v>2612</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>2831</v>
+        <v>2825</v>
       </c>
       <c r="E214" t="s">
         <v>1993</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="G214" t="s">
         <v>29</v>
@@ -38134,10 +38143,10 @@
         <v>783</v>
       </c>
       <c r="J214" s="10" t="s">
-        <v>2826</v>
+        <v>2820</v>
       </c>
       <c r="K214" s="10" t="s">
-        <v>2843</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -38145,16 +38154,16 @@
         <v>1755</v>
       </c>
       <c r="B215" t="s">
-        <v>2619</v>
+        <v>2613</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>2831</v>
+        <v>2825</v>
       </c>
       <c r="E215" t="s">
         <v>1754</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G215" t="s">
         <v>646</v>
@@ -38166,10 +38175,10 @@
         <v>783</v>
       </c>
       <c r="J215" s="10" t="s">
-        <v>2827</v>
+        <v>2821</v>
       </c>
       <c r="K215" s="10" t="s">
-        <v>2844</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -38177,16 +38186,16 @@
         <v>1887</v>
       </c>
       <c r="B216" t="s">
-        <v>2620</v>
+        <v>2614</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>2830</v>
+        <v>2824</v>
       </c>
       <c r="E216" t="s">
         <v>1886</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="G216" t="s">
         <v>29</v>
@@ -38198,10 +38207,10 @@
         <v>783</v>
       </c>
       <c r="J216" s="10" t="s">
-        <v>2826</v>
+        <v>2820</v>
       </c>
       <c r="K216" s="10" t="s">
-        <v>2845</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -38209,16 +38218,16 @@
         <v>1676</v>
       </c>
       <c r="B217" t="s">
-        <v>2621</v>
+        <v>2615</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>2830</v>
+        <v>2824</v>
       </c>
       <c r="E217" t="s">
         <v>1675</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G217" t="s">
         <v>646</v>
@@ -38230,10 +38239,10 @@
         <v>783</v>
       </c>
       <c r="J217" s="10" t="s">
-        <v>2827</v>
+        <v>2821</v>
       </c>
       <c r="K217" s="10" t="s">
-        <v>2846</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -38241,16 +38250,16 @@
         <v>1914</v>
       </c>
       <c r="B218" t="s">
-        <v>2622</v>
+        <v>2616</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>2828</v>
+        <v>2822</v>
       </c>
       <c r="E218" t="s">
         <v>1913</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -38262,10 +38271,10 @@
         <v>783</v>
       </c>
       <c r="J218" s="10" t="s">
-        <v>2826</v>
+        <v>2820</v>
       </c>
       <c r="K218" s="10" t="s">
-        <v>2836</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -38273,16 +38282,16 @@
         <v>1643</v>
       </c>
       <c r="B219" t="s">
-        <v>2623</v>
+        <v>2617</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>2828</v>
+        <v>2822</v>
       </c>
       <c r="E219" t="s">
         <v>1642</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G219" t="s">
         <v>646</v>
@@ -38294,10 +38303,10 @@
         <v>783</v>
       </c>
       <c r="J219" s="10" t="s">
-        <v>2827</v>
+        <v>2821</v>
       </c>
       <c r="K219" s="10" t="s">
-        <v>2835</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -38305,16 +38314,16 @@
         <v>2062</v>
       </c>
       <c r="B220" t="s">
-        <v>2624</v>
+        <v>2618</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>2833</v>
+        <v>2827</v>
       </c>
       <c r="E220" t="s">
         <v>2061</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="G220" t="s">
         <v>29</v>
@@ -38326,10 +38335,10 @@
         <v>783</v>
       </c>
       <c r="J220" s="10" t="s">
-        <v>2826</v>
+        <v>2820</v>
       </c>
       <c r="K220" s="10" t="s">
-        <v>2847</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -38337,16 +38346,16 @@
         <v>1819</v>
       </c>
       <c r="B221" t="s">
-        <v>2625</v>
+        <v>2619</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>2833</v>
+        <v>2827</v>
       </c>
       <c r="E221" t="s">
         <v>1818</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="G221" t="s">
         <v>646</v>
@@ -38358,10 +38367,10 @@
         <v>783</v>
       </c>
       <c r="J221" s="10" t="s">
-        <v>2827</v>
+        <v>2821</v>
       </c>
       <c r="K221" s="10" t="s">
-        <v>2848</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -38369,16 +38378,16 @@
         <v>1725</v>
       </c>
       <c r="B222" t="s">
-        <v>2626</v>
+        <v>2620</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>2903</v>
+        <v>2897</v>
       </c>
       <c r="E222" t="s">
         <v>1724</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G222" t="s">
         <v>29</v>
@@ -38390,10 +38399,10 @@
         <v>783</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="K222" s="13" t="s">
-        <v>2534</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -38401,16 +38410,16 @@
         <v>1721</v>
       </c>
       <c r="B223" t="s">
-        <v>2627</v>
+        <v>2621</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>2903</v>
+        <v>2897</v>
       </c>
       <c r="E223" t="s">
         <v>1720</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G223" t="s">
         <v>646</v>
@@ -38422,10 +38431,10 @@
         <v>783</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="K223" s="13" t="s">
-        <v>2535</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -38433,16 +38442,16 @@
         <v>1629</v>
       </c>
       <c r="B224" t="s">
-        <v>2628</v>
+        <v>2622</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>2808</v>
+        <v>2802</v>
       </c>
       <c r="E224" t="s">
         <v>1628</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="G224" t="s">
         <v>29</v>
@@ -38454,10 +38463,10 @@
         <v>783</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="K224" s="10" t="s">
-        <v>2823</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -38465,16 +38474,16 @@
         <v>2033</v>
       </c>
       <c r="B225" t="s">
-        <v>2629</v>
+        <v>2623</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>2871</v>
+        <v>2865</v>
       </c>
       <c r="E225" t="s">
         <v>2032</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="G225" t="s">
         <v>646</v>
@@ -38486,10 +38495,10 @@
         <v>783</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>2788</v>
+        <v>2782</v>
       </c>
       <c r="K225" s="10" t="s">
-        <v>2824</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -38663,10 +38672,10 @@
         <v>1900</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
       <c r="E231" t="s">
         <v>1899</v>
@@ -38684,10 +38693,10 @@
         <v>451</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>2500</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -38716,10 +38725,10 @@
         <v>451</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -38727,7 +38736,7 @@
         <v>2068</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="C233" t="s">
         <v>2066</v>
@@ -38748,15 +38757,15 @@
         <v>451</v>
       </c>
       <c r="J233" s="4" t="s">
+        <v>2490</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>2496</v>
       </c>
-      <c r="K233" s="4" t="s">
-        <v>2502</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K233"/>
-  <sortState ref="A2:I233">
+  <autoFilter ref="A1:K233" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I233">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -38765,7 +38774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -38831,7 +38840,7 @@
         <v>2079</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="D2" t="s">
         <v>2080</v>
@@ -38852,10 +38861,10 @@
         <v>451</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -38884,10 +38893,10 @@
         <v>451</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>2499</v>
+        <v>2493</v>
       </c>
     </row>
   </sheetData>
